--- a/templates/salary_allowances.xlsx
+++ b/templates/salary_allowances.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hr-database\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C00D6D97-871B-4646-92BA-9DF746FDA028}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{24F0EA92-9888-4B67-910E-8066031F0125}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{7FA7E487-0FC9-42DD-A7B4-C19D7E329EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500F5996-147F-4548-BD2C-CECD84644199}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +558,406 @@
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1234</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2">
+        <v>1234</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+      <c r="F2">
+        <v>1234</v>
+      </c>
+      <c r="G2">
+        <v>1234</v>
+      </c>
+      <c r="H2">
+        <v>1234</v>
+      </c>
+      <c r="I2">
+        <v>1234</v>
+      </c>
+      <c r="J2">
+        <v>1234</v>
+      </c>
+      <c r="K2">
+        <v>1234</v>
+      </c>
+      <c r="L2">
+        <v>1234</v>
+      </c>
+      <c r="M2">
+        <v>1234</v>
+      </c>
+      <c r="N2">
+        <v>1234</v>
+      </c>
+      <c r="O2">
+        <v>1234</v>
+      </c>
+      <c r="P2">
+        <v>1234</v>
+      </c>
+      <c r="Q2">
+        <v>1234</v>
+      </c>
+      <c r="R2">
+        <v>1234</v>
+      </c>
+      <c r="S2">
+        <v>1234</v>
+      </c>
+      <c r="T2">
+        <v>1234</v>
+      </c>
+      <c r="U2">
+        <v>1234</v>
+      </c>
+      <c r="V2">
+        <v>1234</v>
+      </c>
+      <c r="W2">
+        <v>1234</v>
+      </c>
+      <c r="X2">
+        <v>1234</v>
+      </c>
+      <c r="Y2">
+        <v>1234</v>
+      </c>
+      <c r="Z2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12423</v>
+      </c>
+      <c r="B3">
+        <v>1234</v>
+      </c>
+      <c r="C3">
+        <v>1234</v>
+      </c>
+      <c r="D3">
+        <v>1234</v>
+      </c>
+      <c r="E3">
+        <v>1234</v>
+      </c>
+      <c r="F3">
+        <v>1234</v>
+      </c>
+      <c r="G3">
+        <v>1234</v>
+      </c>
+      <c r="H3">
+        <v>1234</v>
+      </c>
+      <c r="I3">
+        <v>1234</v>
+      </c>
+      <c r="J3">
+        <v>1234</v>
+      </c>
+      <c r="K3">
+        <v>1234</v>
+      </c>
+      <c r="L3">
+        <v>1234</v>
+      </c>
+      <c r="M3">
+        <v>1234</v>
+      </c>
+      <c r="N3">
+        <v>1234</v>
+      </c>
+      <c r="O3">
+        <v>1234</v>
+      </c>
+      <c r="P3">
+        <v>1234</v>
+      </c>
+      <c r="Q3">
+        <v>1234</v>
+      </c>
+      <c r="R3">
+        <v>1234</v>
+      </c>
+      <c r="S3">
+        <v>1234</v>
+      </c>
+      <c r="T3">
+        <v>1234</v>
+      </c>
+      <c r="U3">
+        <v>1234</v>
+      </c>
+      <c r="V3">
+        <v>1234</v>
+      </c>
+      <c r="W3">
+        <v>1234</v>
+      </c>
+      <c r="X3">
+        <v>1234</v>
+      </c>
+      <c r="Y3">
+        <v>1234</v>
+      </c>
+      <c r="Z3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>23423</v>
+      </c>
+      <c r="B4">
+        <v>1234</v>
+      </c>
+      <c r="C4">
+        <v>1234</v>
+      </c>
+      <c r="D4">
+        <v>1234</v>
+      </c>
+      <c r="E4">
+        <v>1234</v>
+      </c>
+      <c r="F4">
+        <v>1234</v>
+      </c>
+      <c r="G4">
+        <v>1234</v>
+      </c>
+      <c r="H4">
+        <v>1234</v>
+      </c>
+      <c r="I4">
+        <v>1234</v>
+      </c>
+      <c r="J4">
+        <v>1234</v>
+      </c>
+      <c r="K4">
+        <v>1234</v>
+      </c>
+      <c r="L4">
+        <v>1234</v>
+      </c>
+      <c r="M4">
+        <v>1234</v>
+      </c>
+      <c r="N4">
+        <v>1234</v>
+      </c>
+      <c r="O4">
+        <v>1234</v>
+      </c>
+      <c r="P4">
+        <v>1234</v>
+      </c>
+      <c r="Q4">
+        <v>1234</v>
+      </c>
+      <c r="R4">
+        <v>1234</v>
+      </c>
+      <c r="S4">
+        <v>1234</v>
+      </c>
+      <c r="T4">
+        <v>1234</v>
+      </c>
+      <c r="U4">
+        <v>1234</v>
+      </c>
+      <c r="V4">
+        <v>1234</v>
+      </c>
+      <c r="W4">
+        <v>1234</v>
+      </c>
+      <c r="X4">
+        <v>1234</v>
+      </c>
+      <c r="Y4">
+        <v>1234</v>
+      </c>
+      <c r="Z4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>1234</v>
+      </c>
+      <c r="C5">
+        <v>1234</v>
+      </c>
+      <c r="D5">
+        <v>1234</v>
+      </c>
+      <c r="E5">
+        <v>1234</v>
+      </c>
+      <c r="F5">
+        <v>1234</v>
+      </c>
+      <c r="G5">
+        <v>1234</v>
+      </c>
+      <c r="H5">
+        <v>1234</v>
+      </c>
+      <c r="I5">
+        <v>1234</v>
+      </c>
+      <c r="J5">
+        <v>1234</v>
+      </c>
+      <c r="K5">
+        <v>1234</v>
+      </c>
+      <c r="L5">
+        <v>1234</v>
+      </c>
+      <c r="M5">
+        <v>1234</v>
+      </c>
+      <c r="N5">
+        <v>1234</v>
+      </c>
+      <c r="O5">
+        <v>1234</v>
+      </c>
+      <c r="P5">
+        <v>1234</v>
+      </c>
+      <c r="Q5">
+        <v>1234</v>
+      </c>
+      <c r="R5">
+        <v>1234</v>
+      </c>
+      <c r="S5">
+        <v>1234</v>
+      </c>
+      <c r="T5">
+        <v>1234</v>
+      </c>
+      <c r="U5">
+        <v>1234</v>
+      </c>
+      <c r="V5">
+        <v>1234</v>
+      </c>
+      <c r="W5">
+        <v>1234</v>
+      </c>
+      <c r="X5">
+        <v>1234</v>
+      </c>
+      <c r="Y5">
+        <v>1234</v>
+      </c>
+      <c r="Z5">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12324</v>
+      </c>
+      <c r="B6">
+        <v>1234</v>
+      </c>
+      <c r="C6">
+        <v>1234</v>
+      </c>
+      <c r="D6">
+        <v>1234</v>
+      </c>
+      <c r="E6">
+        <v>1234</v>
+      </c>
+      <c r="F6">
+        <v>1234</v>
+      </c>
+      <c r="G6">
+        <v>1234</v>
+      </c>
+      <c r="H6">
+        <v>1234</v>
+      </c>
+      <c r="I6">
+        <v>1234</v>
+      </c>
+      <c r="J6">
+        <v>1234</v>
+      </c>
+      <c r="K6">
+        <v>1234</v>
+      </c>
+      <c r="L6">
+        <v>1234</v>
+      </c>
+      <c r="M6">
+        <v>1234</v>
+      </c>
+      <c r="N6">
+        <v>1234</v>
+      </c>
+      <c r="O6">
+        <v>1234</v>
+      </c>
+      <c r="P6">
+        <v>1234</v>
+      </c>
+      <c r="Q6">
+        <v>1234</v>
+      </c>
+      <c r="R6">
+        <v>1234</v>
+      </c>
+      <c r="S6">
+        <v>1234</v>
+      </c>
+      <c r="T6">
+        <v>1234</v>
+      </c>
+      <c r="U6">
+        <v>1234</v>
+      </c>
+      <c r="V6">
+        <v>1234</v>
+      </c>
+      <c r="W6">
+        <v>1234</v>
+      </c>
+      <c r="X6">
+        <v>1234</v>
+      </c>
+      <c r="Y6">
+        <v>1234</v>
+      </c>
+      <c r="Z6">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
